--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_40_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_40_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.2771629521650478, 1.8510443773898428]</t>
+          <t>[1.2709459978345432, 1.8572613317203475]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.575717417130363e-14</v>
+        <v>5.218048215738236e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.575717417130363e-14</v>
+        <v>5.218048215738236e-14</v>
       </c>
       <c r="O2" t="n">
         <v>-1.144684410317002</v>
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.19401040449110796, 0.12559078629111364]</t>
+          <t>[-0.193958258438105, 0.12553864023811068]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.6683993756585989</v>
+        <v>0.6682978044869545</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6683993756585989</v>
+        <v>0.6682978044869545</v>
       </c>
       <c r="W2" t="n">
         <v>4.441601601601725</v>
